--- a/Данные и скрипты бд/BDData.xlsx
+++ b/Данные и скрипты бд/BDData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Children" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="Questionnaire_Answers" sheetId="5" r:id="rId4"/>
     <sheet name="Results_Table" sheetId="6" r:id="rId5"/>
     <sheet name="Schools" sheetId="7" r:id="rId6"/>
+    <sheet name="Bek_Scale" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="Children">Children!$A$1:$D$7</definedName>
-    <definedName name="Classes">Classes!$A$1:$C$6</definedName>
+    <definedName name="Bek_Scale">Bek_Scale!$A$1:$B$1</definedName>
+    <definedName name="Children">Children!$A$1:$D$21</definedName>
+    <definedName name="Classes">Classes!$A$1:$C$11</definedName>
     <definedName name="EGE_Questions">EGE_Questions!$A$1:$B$1</definedName>
-    <definedName name="Questionnaire_Answers">Questionnaire_Answers!$A$1:$AS$7</definedName>
+    <definedName name="Questionnaire_Answers">Questionnaire_Answers!$A$1:$AS$11</definedName>
     <definedName name="Results_Table">Results_Table!$A$1:$G$7</definedName>
     <definedName name="Schools">Schools!$A$1:$B$1</definedName>
   </definedNames>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -370,6 +372,132 @@
   </si>
   <si>
     <t>Я чувствую, что сдать ЕГЭ мне по силам.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Dsf F.H.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Ku S.V.</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Sdf D.J.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Авлопр Ц.Ы.</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Авп А.Р.</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Fdshk F.S.</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Ukjhfd F.F.</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Лроива А.А.</t>
+  </si>
+  <si>
+    <t>2019-10-25 12:28:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-10-29 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-10-31 18:07:00</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Я жду будущего с надеждой и энтузиазмом.</t>
+  </si>
+  <si>
+    <t>Мне пора сдаться, т.к. я ничего не могу изменить к лучшему.</t>
+  </si>
+  <si>
+    <t>Когда дела идут плохо, мне помогает мысль, что так не может продолжаться всегда.</t>
+  </si>
+  <si>
+    <t>Я не могу представить, на что будет похожа моя жизнь через 10 лет.</t>
+  </si>
+  <si>
+    <t>У меня достаточно времени, чтобы завершить дела, которыми я больше всего хочу заниматься.</t>
+  </si>
+  <si>
+    <t>В будущем, я надеюсь достичь успеха в том, что мне больше всего нравится.</t>
+  </si>
+  <si>
+    <t>Будущее представляется мне во тьме.</t>
+  </si>
+  <si>
+    <t>Я надеюсь получить в жизни больше хорошего, чем средний человек.</t>
+  </si>
+  <si>
+    <t>У меня нет никаких просветов и нет причин верить, что они появятся в будущем.</t>
+  </si>
+  <si>
+    <t>Мой прошлый опыт хорошо меня подготовил к будущему.</t>
+  </si>
+  <si>
+    <t>Всё, что я вижу впереди - скорее, неприятности, чем радости.</t>
+  </si>
+  <si>
+    <t>Я не надеюсь достичь того, чего действительно хочу.</t>
+  </si>
+  <si>
+    <t>Когда я заглядываю в будущее, я надеюсь быть счастливее, чем я есть сейчас.</t>
+  </si>
+  <si>
+    <t>Дела идут не так, как мне хочется.</t>
+  </si>
+  <si>
+    <t>Я сильно верю в своё будущее.</t>
+  </si>
+  <si>
+    <t>Я никогда не достигаю того, что хочу, поэтому глупо что-либо хотеть.</t>
+  </si>
+  <si>
+    <t>Весьма маловероятно, что я получу реальное удовлетворение в будущем.</t>
+  </si>
+  <si>
+    <t>Будущее представляется- мне расплывчатым и неопределённым.</t>
+  </si>
+  <si>
+    <t>В будущем меня ждёт больше хороших дней, чем плохих.</t>
+  </si>
+  <si>
+    <t>Бесполезно пытаться получить то, что я хочу, потому, что, вероятно, я не добьюсь этого.</t>
   </si>
 </sst>
 </file>
@@ -406,8 +534,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -688,9 +819,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -789,6 +920,202 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -799,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,6 +1195,61 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -880,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1534,6 +1916,269 @@
       </c>
       <c r="T7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1681,9 +2326,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1695,6 +2342,208 @@
         <v>95</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
